--- a/product_excel.xlsx
+++ b/product_excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuananh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DataProject\Java\spring-boot-multikart-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69168D69-1039-4B43-86B5-443E4D73001B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655029B0-A11B-4155-BCE6-0631F4D35E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71AA7E08-A187-4208-B1FA-D05E259FF10A}"/>
   </bookViews>
@@ -67,30 +67,6 @@
     <t>Đường dẫn</t>
   </si>
   <si>
-    <t>Sản phẩm test 1</t>
-  </si>
-  <si>
-    <t>Sản phẩm test 2</t>
-  </si>
-  <si>
-    <t>Sản phẩm test 3</t>
-  </si>
-  <si>
-    <t>Sản phẩm test 4</t>
-  </si>
-  <si>
-    <t>san-pham-test-1</t>
-  </si>
-  <si>
-    <t>san-pham-test-2</t>
-  </si>
-  <si>
-    <t>san-pham-test-3</t>
-  </si>
-  <si>
-    <t>san-pham-test-4</t>
-  </si>
-  <si>
     <t>Hóa Mỹ Phẩm</t>
   </si>
   <si>
@@ -101,6 +77,30 @@
   </si>
   <si>
     <t>Active</t>
+  </si>
+  <si>
+    <t>Sản phẩm test 5</t>
+  </si>
+  <si>
+    <t>Sản phẩm test 6</t>
+  </si>
+  <si>
+    <t>Sản phẩm test 7</t>
+  </si>
+  <si>
+    <t>Sản phẩm test 8</t>
+  </si>
+  <si>
+    <t>san-pham-test-5</t>
+  </si>
+  <si>
+    <t>san-pham-test-6</t>
+  </si>
+  <si>
+    <t>san-pham-test-7</t>
+  </si>
+  <si>
+    <t>san-pham-test-8</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -537,16 +537,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>8500</v>
@@ -555,28 +555,28 @@
         <v>8000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2">
         <v>500</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <v>8500</v>
@@ -585,28 +585,28 @@
         <v>8000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
         <v>300</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2">
         <v>8500</v>
@@ -615,28 +615,28 @@
         <v>8000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
         <v>800</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2">
         <v>8500</v>
@@ -645,13 +645,13 @@
         <v>8000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J5" s="2"/>
     </row>
